--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Config_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Config_JS.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$K$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -99,8 +99,307 @@
     <t>Config-JS</t>
   </si>
   <si>
+    <t>Check for startpage</t>
+  </si>
+  <si>
+    <t>Check MinSeverity value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0404_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0405_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>Check use_bulk_mode value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0406_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0407_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0408_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0409_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0410_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0411_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>check the value of newly added property</t>
+  </si>
+  <si>
+    <t>Check existance of property after removing the property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0412_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0413_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0402_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>Change Startpath to default with saveToFile as true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0414_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+SelectTestToRun(VT200-0402_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate2;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0401_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+ClickNativeIcon(homebutton_xpath);
+SwitchApp(WEBVIEW);
+wait(2);
+validate5;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0401
+};
+validate4
+{
+validate_Result=1. Initial start_path value: : /app/index.html
+validate_Result=2. After setting new start_path value: : /app/ConfigTest/specRunner.html
+};
+validate5
+{
+validate_PageTitle=Config JS specs
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0402
+};
+validate4
+{
+validate_Result=1. Initial start_path value: : /app/index.html
+validate_Result=2. After setting new start_path value: : /app/ConfigTest/specRunner.html
+};
+</t>
+  </si>
+  <si>
     <t>validate1
 {
+validate_PageTitle=Config JS specs
+};
+validate2
+{
+validate_Text_Exists=VT200-0402
+};
+validate3
+{
+validate_Result=1. Initial start_path value: : /app/ConfigTest/specRunner.html
+validate_Result=2. After setting new start_path value: : /app/ConfigTest/specRunner.html
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Config JS specs
+};
+validate2
+{
+validate_Text_Exists=VT200-0403
+};
+validate3
+{
+validate_Result=1. Initial start_path value: : /app/ConfigTest/specRunner.html
+validate_Result=2. After setting new start_path value: : /app/index.html
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0404
+};
+validate4
+{
+validate_Result=1. Initial MinSeverity value: : 1
+validate_Result=2. After setting new MinSeverity value: : 0
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
 validate_PageTitle=Compliance JS specs
 };
 validate2
@@ -113,12 +412,27 @@
 };
 validate4
 {
-validate_Result=1. Initial MinSeverity value:  = false
-2. After setting new MinSeverity value: = true
-};
-validate5
-{
-validate_PageTitle=Config JS specs
+validate_Result=1. Initial MinSeverity value: : 1
+validate_Result=2. After setting new MinSeverity value: : 0
+};
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0408
+};
+validate4
+{
+validate_Result=getPropertyString Return value after setting to invalid: : Type error: argument 1 should be string
 };</t>
   </si>
   <si>
@@ -132,19 +446,130 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0403
-};
-validate4
-{
-validate_Result=1. Initial MinSeverity value:  = 1
-2. After setting new MinSeverity value: = 0
-};
-validate5
-{
-validate_PageTitle=Config JS specs
+validate_Text_Exists=VT200-0411
+};
+validate4
+{
+validate_Result=1.start_path value: : true
+validate_Result=1.start_path value: : true
 };</t>
   </si>
   <si>
+    <t>wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0404_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0401_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+SelectTestToRun(VT200-0403_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate2;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate3;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0405_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0414_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0413_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0412_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0407_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(config_test_link);
+validate2;
+SelectTestToRun(VT200-0406_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -155,36 +580,110 @@
 };
 validate3
 {
+validate_Text_Exists=VT200-0401
+};
+validate4
+{
+validate_Result=1. Initial start_path value: : /app/index.html
+validate_Result=2. After setting new start_path value: : /app/ConfigTest/specRunner.html
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0404
+};
+validate4
+{
+validate_Result=1. Initial MinSeverity value: : 1
+validate_Result=2. After setting new MinSeverity value: : 0
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0405
+};
+validate4
+{
+validate_Result=1. Initial MinSeverity value: : 0
+validate_Result=2. After setting new MinSeverity value: : 0
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
 validate_Text_Exists=VT200-0406
 };
 validate4
 {
-validate_Result=1. Initial use_bulk_model value:  = false
-2. After setting new use_bulk_model value: = true
-};
-validate5
-{
-validate_PageTitle=Config JS specs
-};
-validate4
-{
-validate_Result=1. Initial use_bulk_model value:  = true
-2. After setting new use_bulk_model value: = true
+validate_Result=1. Initial use_bulk_model value: : false
+validate_Result=After setting new use_bulk_model value: : true
+};
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0406
+};
+validate4
+{
+validate_Result=1. Initial use_bulk_model value: : false
+validate_Result=After setting new use_bulk_model value: : true
 };</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0407_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;</t>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0407
+};
+validate4
+{
+validate_Result=1. Initial use_bulk_model value: : false
+validate_Result=After setting new use_bulk_model value: : true
+};
+</t>
   </si>
   <si>
     <t>validate1
@@ -201,24 +700,11 @@
 };
 validate4
 {
-validate_Result=getPropertyString Return value after setting to invalid: = Type error: argument 1 should be string
+validate_Result=1. Initial use_bulk_model value: : true
+validate_Result=After setting new use_bulk_model value: : true
 };</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0408_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -229,28 +715,14 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0408
-};
-validate4
-{
-validate_Result=getPropertyInt Return value after setting to invalid: = Type error: argument 1 should be Integer
+validate_Text_Exists=VT200-0409
+};
+validate4
+{
+validate_Result=getPropertyInt Return value after setting to invalid: : Type error: argument 1 should be integer
 };</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0409_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -261,26 +733,32 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0409
-};
-validate4
-{
-validate_Result=getPropertyBool Return value after setting to invalid: = Type error: argument 1 should be boolean
+validate_Text_Exists=VT200-0410
+};
+validate4
+{
+validate_Result=getPropertyBool Return value after setting to invalid: : Type error: argument 1 should be boolean
 };</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0410_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;</t>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0413
+};
+validate4
+{
+validate_Result=First value full_screen: : true
+validate_Result=Second value full_screen: : false
+};
+</t>
   </si>
   <si>
     <t>validate1
@@ -293,15 +771,35 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0410
-};
-validate4
-{
-validate_Result=1. start_path value: = true
-2. start_path value: = true
+validate_Text_Exists=VT200-0413
+};
+validate4
+{
+validate_Result=First value full_screen: : true
+validate_Result=Second value full_screen: : false
 };</t>
   </si>
   <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0414
+};
+validate4
+{
+validate_Result=Second full_screen_user value: : false
+validate_Result=Second full_screen_user value: : false
+};
+</t>
+  </si>
+  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -312,20 +810,35 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0411
-};
-validate4
-{
-validate_Result=1. Initial full_screen_user value: = 
-2. After setting new full_screen_user value: = screen_value
-};
-validate5
-{
-validate_Result=1. Initial full_screen_user value: = screen_value 
-2. After setting new full_screen_user value: = screen_value
+validate_Text_Exists=VT200-0414
+};
+validate4
+{
+validate_Result=First full_screen_user value: : false
+validate_Result=Second full_screen_user value: : false
 };</t>
   </si>
   <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Config JS specs
+};
+validate3
+{
+validate_Text_Exists=VT200-0412
+};
+validate4
+{
+validate_Result=1. Initial full_screen_user value: :
+validate_Result=2. After setting new full_screen_user value: : screen_value
+};
+</t>
+  </si>
+  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -340,348 +853,8 @@
 };
 validate4
 {
-validate_Result=1. first value full_screen = true
-2. Second value full_screen = false
-};
-validate5
-{
-validate_Result=1. first value full_screen = false
-2. Second value full_screen = false
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Config JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0235
-};
-validate4
-{
-validate_Result=2. After setting new full_screen_user value: = screen_value
-};
-validate5
-{
-validate_Text_Exists=VT200-0413
-};
-validate6
-{
-validate_Result=1. first value full_screen = true
-2. Second value full_screen = false
-};
-validate7
-{
-validate_Result=1. first value full_screen = false
-2. Second value full_screen = false
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0403_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-exitApplication(quit_xpath);
-wait(5);
-launch_App_Device(com.rhomobile.compliancejs);
-validate5;
-SelectTestToRun(VT200-0403_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0404_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-exitApplication(quit_xpath);
-wait(5);
-launch_App_Device(com.rhomobile.compliancejs);
-validate5;
-SelectTestToRun(VT200-0404_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate6;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0405_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-exitApplication(quit_xpath);
-wait(5);
-launch_App_Device(com.rhomobile.compliancejs);
-validate5;
-SelectTestToRun(VT200-0405_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0406_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-exitApplication(quit_xpath);
-wait(5);
-launch_App_Device(com.rhomobile.compliancejs);
-validate5;
-SelectTestToRun(VT200-0406_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate6;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Config JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0404
-};
-validate4
-{
-validate_Result=1. Initial MinSeverity value:  = 1
-2. After setting new MinSeverity value: = 0
-};
-validate5
-{
-validate_PageTitle=Config JS specs
-};
-validate6
-{
-validate_Result=1. Initial MinSeverity value:  = 1
-2. After setting new MinSeverity value: = 1
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0412_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-exitApplication(quit_xpath);
-wait(5);
-launch_App_Device(com.rhomobile.compliancejs);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0412_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0411_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-exitApplication(quit_xpath);
-wait(5);
-launch_App_Device(com.rhomobile.compliancejs);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0411_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(config_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0411_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate4;
-wait(5);
-SelectTestToRun(VT200-0413_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate5;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate6;
-exitApplication(quit_xpath);
-wait(5);
-launch_App_Device(com.rhomobile.compliancejs);
-wait(5);
-validate2;
-SelectTestToRun(VT200-0413_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate5;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-validate7;</t>
-  </si>
-  <si>
-    <t>Check for startpage</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Config JS specs
-};
-</t>
-  </si>
-  <si>
-    <t>validate1;
-link_Click(config_test_link);
-validate2;
-SelectTestToRun(VT200_0401_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Config JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0401
-};
-validate6
-{
-validate_PageTitle=Compliance JS specs
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Config JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0402
-};
-validate4
-{
-validate_Result=1. Initial start_path value:  : /app/index.html
-validate_Result=2. After setting new start_path value:  : /app/ConfigTest/specRunner.html
-};</t>
-  </si>
-  <si>
-    <t>validate1;
-link_Click(config_test_link);
-validate2;
-SelectTestToRun(VT200_0402_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Config JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0402
-};
-validate4
-{
-validate_Result=1. Initial start_path value:  : /app/ConfigTest/specRunner.html
-validate_Result=2. After setting new start_path value:  : /app/ConfigTest/specRunner.html
+validate_Result=1. Initial full_screen_user value: : screen_value
+validate_Result=2. After setting new full_screen_user value: : screen_value
 };</t>
   </si>
 </sst>
@@ -822,10 +995,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D3" sqref="D3:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,7 +1343,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="180.75" thickBot="1">
+    <row r="2" spans="1:11" ht="270.75" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1180,18 +1353,18 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -1211,22 +1384,20 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="214.5" thickBot="1">
+    <row r="4" spans="1:11" ht="225.75" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1240,22 +1411,20 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57" thickBot="1">
+    <row r="5" spans="1:11" ht="169.5" thickBot="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1265,106 +1434,114 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="270.75" thickBot="1">
+    <row r="6" spans="1:11" ht="169.5" thickBot="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="293.25" thickBot="1">
+    <row r="7" spans="1:11" ht="214.5" thickBot="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="270.75" thickBot="1">
+    <row r="8" spans="1:11" ht="203.25" thickBot="1">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="315.75" thickBot="1">
+    <row r="9" spans="1:11" ht="214.5" thickBot="1">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1372,164 +1549,378 @@
     </row>
     <row r="10" spans="1:11" ht="203.25" thickBot="1">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="203.25" thickBot="1">
+    <row r="11" spans="1:11" ht="225.75" thickBot="1">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="203.25" thickBot="1">
+    <row r="12" spans="1:11" ht="214.5" thickBot="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="192" thickBot="1">
+    <row r="13" spans="1:11" ht="225.75" thickBot="1">
       <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="282" thickBot="1">
+    <row r="14" spans="1:11" ht="214.5" thickBot="1">
       <c r="A14" s="1">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="282" thickBot="1">
+    <row r="15" spans="1:11" ht="203.25" thickBot="1">
       <c r="A15" s="1">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="372" thickBot="1">
+    <row r="16" spans="1:11" ht="203.25" thickBot="1">
       <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="203.25" thickBot="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="192" thickBot="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="214.5" thickBot="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="214.5" thickBot="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="203.25" thickBot="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="192" thickBot="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="225.75" thickBot="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="214.5" thickBot="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Config_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Config_JS.xlsx
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
